--- a/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
+++ b/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\user.uu.se\UUIT\ITS-Users\jonam895\Documents\Ladok\Mappningar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferpi108\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
     <sheet name="AterkalladOmregistreringEvent" sheetId="2" r:id="rId2"/>
     <sheet name="AterkalladregistreringEvent" sheetId="3" r:id="rId3"/>
     <sheet name="ForvantatDeltagandeSkapadEvent" sheetId="4" r:id="rId4"/>
-    <sheet name="KurpaketeringstillfalleTillStat" sheetId="5" r:id="rId5"/>
-    <sheet name="KurstillfalleTillStatusEvent" sheetId="6" r:id="rId6"/>
-    <sheet name="OmregistreringEvent" sheetId="7" r:id="rId7"/>
-    <sheet name="RegistreringEvent" sheetId="8" r:id="rId8"/>
-    <sheet name="StudentAvlidenmarkeringEvent" sheetId="9" r:id="rId9"/>
+    <sheet name="KurstillfalleTillStatusEvent" sheetId="6" r:id="rId5"/>
+    <sheet name="OmregistreringEvent" sheetId="7" r:id="rId6"/>
+    <sheet name="RegistreringEvent" sheetId="8" r:id="rId7"/>
+    <sheet name="StudentAvlidenmarkeringEvent" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,17 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
-  <si>
-    <t>AterbudEvent/StudentUID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
   <si>
     <t>pnr</t>
   </si>
   <si>
-    <t>AterbudEvent/UtbildningstillfalleUID</t>
-  </si>
-  <si>
     <t>Från</t>
   </si>
   <si>
@@ -52,18 +45,6 @@
     <t>Logik</t>
   </si>
   <si>
-    <t>reportCode, startSemester</t>
-  </si>
-  <si>
-    <t>startSemester + '_' + reportcode</t>
-  </si>
-  <si>
-    <t>Ej klar</t>
-  </si>
-  <si>
-    <t>Sätts till värdet "2"</t>
-  </si>
-  <si>
     <t>courseCode</t>
   </si>
   <si>
@@ -73,72 +54,213 @@
     <t>reportCode</t>
   </si>
   <si>
-    <t>AterkalladOmregistreringEvent/KurstillfalleUID</t>
-  </si>
-  <si>
-    <t>AterkalladOmregistreringEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>AterkalladregistreringEvent/KurstillfalleUID</t>
-  </si>
-  <si>
-    <t>AterkalladregistreringEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>ForvantatDeltagandeSkapadEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>ForvantatDeltagandeSkapadEvent/UtbildningstillfalleUID</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/Status</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/UtbildningsinstansUID</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/StartperiodID</t>
-  </si>
-  <si>
-    <t>KurstillfalleTillStatusEvent/Utbildningstillfalleskod</t>
-  </si>
-  <si>
-    <t>OmregistreringEvent/KurstillfalleUID</t>
-  </si>
-  <si>
-    <t>OmregistreringEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>RegistreringEvent/KurstillfalleUID</t>
-  </si>
-  <si>
-    <t>RegistreringEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>StudentAvlidenmarkeringEvent/avliden</t>
-  </si>
-  <si>
-    <t>StudentAvlidenmarkeringEvent/StudentUID</t>
-  </si>
-  <si>
-    <t>Sätts till "true"</t>
+    <t>Fast värde "2"</t>
+  </si>
+  <si>
+    <t>Beskrivning</t>
+  </si>
+  <si>
+    <t>Source:http://schemas.microsoft.com/Sql/2008/05/TypedPolling/ladokevents</t>
+  </si>
+  <si>
+    <t>/TypedPollingResultSet0</t>
+  </si>
+  <si>
+    <t>/AterbudEvent</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_AterbudEvent</t>
+  </si>
+  <si>
+    <t>/events:EventContext</t>
+  </si>
+  <si>
+    <t>events:Anvandarnamn</t>
+  </si>
+  <si>
+    <t>Fast värde "ladok"</t>
+  </si>
+  <si>
+    <t>events:LarosateID</t>
+  </si>
+  <si>
+    <t>Fast värde 0</t>
+  </si>
+  <si>
+    <t>../AterbudEvent</t>
+  </si>
+  <si>
+    <t>events:HandelseUID</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Aterbudsdatum</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_AterkalladOmregistreringEvent</t>
+  </si>
+  <si>
+    <t>/AterkalladOmregistreringEvent</t>
+  </si>
+  <si>
+    <t>Orsak</t>
+  </si>
+  <si>
+    <t>Fast värde "studiedeltagande.domain.aterkalla.orsak.borttagen_registrering"</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_AterkalladregistreringEvent</t>
+  </si>
+  <si>
+    <t>/AterkalladregistreringEvent</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_ForvantatDeltagandeSkapadEvent</t>
+  </si>
+  <si>
+    <t>/ForvantatDeltagandeSkapadEvent</t>
+  </si>
+  <si>
+    <t>/KurstillfalleTillStatusEvent</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Utbildningstillfalleskod</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_KurstillfalleTillStatusEvent</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_OmregistreringEvent</t>
+  </si>
+  <si>
+    <t>/OmregistreringEvent</t>
+  </si>
+  <si>
+    <t>StudieperiodStart</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_RegistreringEvent</t>
+  </si>
+  <si>
+    <t>/RegistreringEvent</t>
+  </si>
+  <si>
+    <t>Mappning: MembershipEvent_to_StudentAvlidenmarkeringEvent</t>
+  </si>
+  <si>
+    <t>/StudentAvlidenmarkeringEvent</t>
+  </si>
+  <si>
+    <t>avliden</t>
+  </si>
+  <si>
+    <t>Fast värde true</t>
+  </si>
+  <si>
+    <t>Target: http://schemas.ladok.se/studentinformation</t>
+  </si>
+  <si>
+    <t>Target: http://ladok.uu.envelope.schemas</t>
+  </si>
+  <si>
+    <t>/AterbudEnvelope</t>
+  </si>
+  <si>
+    <t>../Utbildningstillfalle</t>
+  </si>
+  <si>
+    <t>/Tillfallesperioder/ForstaUndervisningsdatum</t>
+  </si>
+  <si>
+    <t>Tillfalleskod</t>
+  </si>
+  <si>
+    <t>../Utbildningsinstans</t>
+  </si>
+  <si>
+    <t>Utbildningskod</t>
+  </si>
+  <si>
+    <t>../Student</t>
+  </si>
+  <si>
+    <t>Personnummer</t>
+  </si>
+  <si>
+    <t>Dagens datum</t>
+  </si>
+  <si>
+    <t>Konverterar till datum</t>
+  </si>
+  <si>
+    <t>Fast värde "uppdok"</t>
+  </si>
+  <si>
+    <t>För att skapa giltig output så läggs det in default värden i de fält som är mandatory men som inte behövs typ &lt;empty&gt; eller 0.
+Dessa mappningar visas inte i detta dokument.</t>
+  </si>
+  <si>
+    <t>/AterkalladOmregistreringEnvelope</t>
+  </si>
+  <si>
+    <t>../AterkalladOmregistreringEvent</t>
+  </si>
+  <si>
+    <t>/AterkalladRegistreringEnvelope</t>
+  </si>
+  <si>
+    <t>/ForvantatDeltagandeSkapadEnvelope</t>
+  </si>
+  <si>
+    <t>Efternamn</t>
+  </si>
+  <si>
+    <t>Fornamn</t>
+  </si>
+  <si>
+    <t>Hämtas via MySQl anrop</t>
+  </si>
+  <si>
+    <t>/KurstillfalleTillStatusEnvelope</t>
+  </si>
+  <si>
+    <t>/Kurstillfallesperioder/ForstaUndervisningsdatum</t>
+  </si>
+  <si>
+    <t>/OmregistreringEnvelope</t>
+  </si>
+  <si>
+    <t>../KurstillfalleTillStatusEvent</t>
+  </si>
+  <si>
+    <t>/RegistreringEnvelope</t>
+  </si>
+  <si>
+    <t>../RegistreringEvent</t>
+  </si>
+  <si>
+    <t>../OmregistreringEvent</t>
+  </si>
+  <si>
+    <t>/StudentAvlidenmarkeringEnvelope</t>
+  </si>
+  <si>
+    <t>../StudentAvlidenmarkeringEvent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,8 +273,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,7 +290,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,17 +314,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,50 +619,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="D17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -514,396 +788,1261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1796875" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="52.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E4" sqref="E4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E4" sqref="E4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
+++ b/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="84">
   <si>
     <t>pnr</t>
   </si>
@@ -251,6 +251,39 @@
   </si>
   <si>
     <t>../StudentAvlidenmarkeringEvent</t>
+  </si>
+  <si>
+    <t>../Organisation</t>
+  </si>
+  <si>
+    <t>./Benamningar/Benamningar</t>
+  </si>
+  <si>
+    <t>sv och eng</t>
+  </si>
+  <si>
+    <t>Sprakkod</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Hämtas via MySQL anrop (GetCourseDescriptions)</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>En eller fler semesters</t>
+  </si>
+  <si>
+    <t>Hämtas via MySQL anrop (GetFullname)</t>
+  </si>
+  <si>
+    <t>Hämtas via MySQL anrop (GetSemesters), värdena konverteras till datum</t>
   </si>
 </sst>
 </file>
@@ -319,12 +352,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,8 +370,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -621,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,17 +677,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -671,24 +713,24 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -697,15 +739,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -714,8 +756,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -804,17 +846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -837,10 +879,10 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -849,15 +891,15 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -866,15 +908,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -883,8 +925,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -893,15 +935,15 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -913,8 +955,8 @@
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -923,8 +965,8 @@
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
@@ -981,17 +1023,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1014,10 +1056,10 @@
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1026,15 +1068,15 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1043,8 +1085,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1053,15 +1095,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1070,8 +1112,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
@@ -1080,15 +1122,15 @@
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1100,8 +1142,8 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1152,7 +1194,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,17 +1206,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1198,10 +1240,10 @@
       <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1210,15 +1252,15 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1227,15 +1269,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1244,15 +1286,15 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1264,8 +1306,8 @@
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1274,15 +1316,15 @@
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1299,7 +1341,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -1307,7 +1349,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -1333,33 +1375,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.36328125" customWidth="1"/>
     <col min="4" max="4" width="47.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1383,10 +1425,10 @@
       <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1395,15 +1437,15 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1412,15 +1454,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1429,8 +1471,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -1439,8 +1481,8 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1449,35 +1491,107 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1487,6 +1601,7 @@
     <mergeCell ref="E4:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1507,17 +1622,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1541,10 +1656,10 @@
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1553,15 +1668,15 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1570,8 +1685,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1580,15 +1695,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1597,8 +1712,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1610,15 +1725,15 @@
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1630,8 +1745,8 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1698,29 +1813,29 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1744,10 +1859,10 @@
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1756,15 +1871,15 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1773,8 +1888,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1783,15 +1898,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1800,8 +1915,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1813,15 +1928,15 @@
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1833,8 +1948,8 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1864,7 +1979,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -1872,7 +1987,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>62</v>
@@ -1913,17 +2028,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" t="s">
         <v>43</v>
       </c>
@@ -1947,12 +2062,12 @@
       <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1961,19 +2076,19 @@
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1982,19 +2097,19 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -2003,8 +2118,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -2013,15 +2128,15 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2030,12 +2145,12 @@
       <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
+++ b/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
   <si>
     <t>pnr</t>
   </si>
@@ -284,6 +284,33 @@
   </si>
   <si>
     <t>Hämtas via MySQL anrop (GetSemesters), värdena konverteras till datum</t>
+  </si>
+  <si>
+    <t>../Utbildningstillfalle[1]</t>
+  </si>
+  <si>
+    <t>../Utbildningsinstans[1]</t>
+  </si>
+  <si>
+    <t>../Utbildningstillfalle[2]</t>
+  </si>
+  <si>
+    <t>Första Utbildningstillfället</t>
+  </si>
+  <si>
+    <t>Andra Utbildningstillfället skapas i det fallet ett program finns angivet</t>
+  </si>
+  <si>
+    <t>Fast värde "XXXX"</t>
+  </si>
+  <si>
+    <t>../Utbildningsinstans[2]</t>
+  </si>
+  <si>
+    <t>Andra Utbildningsinstansen skapas i det fallet ett program finns angivet</t>
+  </si>
+  <si>
+    <t>program</t>
   </si>
 </sst>
 </file>
@@ -352,7 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -360,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -370,14 +406,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -677,17 +710,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -713,24 +746,24 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -739,15 +772,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -756,8 +789,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -846,17 +879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -879,10 +912,10 @@
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -891,15 +924,15 @@
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -908,15 +941,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -925,8 +958,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -935,15 +968,15 @@
       <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -955,8 +988,8 @@
       <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -965,8 +998,8 @@
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
@@ -1023,17 +1056,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1056,10 +1089,10 @@
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1068,15 +1101,15 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1085,8 +1118,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1095,15 +1128,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1112,8 +1145,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
@@ -1122,15 +1155,15 @@
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1142,8 +1175,8 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1206,17 +1239,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1240,10 +1273,10 @@
       <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1252,15 +1285,15 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1269,15 +1302,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1286,15 +1319,15 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1306,8 +1339,8 @@
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1316,15 +1349,15 @@
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1377,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1391,17 +1424,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1425,10 +1458,10 @@
       <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1437,15 +1470,15 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1454,15 +1487,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1471,8 +1504,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -1481,8 +1514,8 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1491,31 +1524,31 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
@@ -1607,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F13"/>
+      <selection activeCell="A12" sqref="A12:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1622,17 +1655,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1656,10 +1689,10 @@
       <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1668,15 +1701,15 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1685,8 +1718,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1695,15 +1728,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1712,8 +1745,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1725,15 +1758,18 @@
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1745,8 +1781,8 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1756,45 +1792,88 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="1" t="s">
-        <v>49</v>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1810,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,20 +1901,21 @@
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>44</v>
       </c>
@@ -1859,10 +1939,10 @@
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1871,15 +1951,15 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
@@ -1888,8 +1968,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
@@ -1898,15 +1978,15 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1915,8 +1995,8 @@
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1928,15 +2008,16 @@
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1948,8 +2029,6 @@
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1959,45 +2038,92 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2005,7 +2131,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E4:F13"/>
+    <mergeCell ref="E4:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2028,17 +2154,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>43</v>
       </c>
@@ -2062,10 +2188,10 @@
       <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
@@ -2076,8 +2202,8 @@
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
@@ -2085,8 +2211,8 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
@@ -2097,8 +2223,8 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
@@ -2106,8 +2232,8 @@
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
@@ -2118,8 +2244,8 @@
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
@@ -2128,15 +2254,15 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2145,12 +2271,12 @@
       <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
+++ b/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="128">
   <si>
     <t>pnr</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>FelVidEtableringExternt</t>
+  </si>
+  <si>
+    <t>Hämtas via MySQL anrop GetCourseDescriptions)</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD61"/>
+  <dimension ref="A1:XFD63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18950,6 +18953,22 @@
         <v>52</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>

--- a/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
+++ b/INT0001.Ladok2.Events/Src/Files/INT0001.Ladok2.maps.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonam895\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peasb031\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1FDDA878-B7D4-4273-A0EB-D420C7F92430}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AterbudEvent" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="129">
   <si>
     <t>pnr</t>
   </si>
@@ -417,11 +418,14 @@
   <si>
     <t>Hämtas via MySQL anrop GetCourseDescriptions)</t>
   </si>
+  <si>
+    <t>Om starttermin och termin är lika är det en förstaterminsregistrering "1" annars fortsättningsregistrering "2"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,8 +526,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
+    <cellStyle name="Dekorfärg1" xfId="1" builtinId="29"/>
+    <cellStyle name="Dekorfärg5" xfId="2" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -801,29 +805,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -833,7 +837,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -859,21 +863,21 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -883,14 +887,14 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -900,7 +904,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -908,12 +912,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -924,7 +928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -932,12 +936,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -945,12 +949,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -970,29 +974,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1796875" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1025,7 +1029,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,14 +1039,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -1052,14 +1056,14 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1073,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -1079,14 +1083,14 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1103,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1109,12 +1113,12 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1122,12 +1126,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1147,29 +1151,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1202,7 +1206,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,14 +1216,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1233,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -1239,14 +1243,14 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1260,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1266,14 +1270,14 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1286,7 +1290,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1294,12 +1298,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1307,12 +1311,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1331,28 +1335,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="52.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>60</v>
@@ -1386,7 +1390,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1396,14 +1400,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -1413,14 +1417,14 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1430,14 +1434,14 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1454,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1460,14 +1464,14 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1475,12 +1479,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>82</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>82</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1515,29 +1519,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>64</v>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1581,14 +1585,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -1598,14 +1602,14 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1619,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1629,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1639,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1651,14 +1655,14 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>75</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>78</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>78</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1690,12 +1694,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>75</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>78</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>78</v>
       </c>
@@ -1719,12 +1723,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>80</v>
       </c>
@@ -1747,28 +1751,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>66</v>
@@ -1802,7 +1806,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,14 +1816,14 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -1829,7 +1833,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -1839,14 +1843,14 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1860,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +1873,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1896,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>88</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>89</v>
       </c>
@@ -1927,61 +1931,69 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1996,29 +2008,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:XFD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>68</v>
@@ -2052,7 +2064,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2062,14 +2074,14 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2091,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>17</v>
       </c>
@@ -2089,14 +2101,14 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2106,14 +2118,14 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>96</v>
       </c>
@@ -2123,7 +2135,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>97</v>
       </c>
@@ -2133,14 +2145,14 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>96</v>
       </c>
@@ -2150,7 +2162,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2175,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2176,9 +2188,9 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>100</v>
@@ -2186,7 +2198,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>96</v>
       </c>
@@ -2196,7 +2208,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>96</v>
       </c>
@@ -2206,7 +2218,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>96</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>106</v>
       </c>
@@ -2226,7 +2238,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>101</v>
       </c>
@@ -2236,7 +2248,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>109</v>
       </c>
@@ -2246,7 +2258,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -2259,7 +2271,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2272,7 +2284,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>114</v>
       </c>
@@ -2282,7 +2294,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>87</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2301,7 +2313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>96</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>114</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>101</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C34" s="4" t="s">
         <v>121</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>106</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2372,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:16384" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16384" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="C37" s="7" t="s">
         <v>88</v>
       </c>
@@ -2370,7 +2382,7 @@
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>97</v>
       </c>
@@ -2380,7 +2392,7 @@
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>96</v>
       </c>
@@ -2390,7 +2402,7 @@
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16384" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" t="s">
@@ -18780,7 +18792,7 @@
       <c r="XFC40"/>
       <c r="XFD40" s="4"/>
     </row>
-    <row r="41" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -18791,7 +18803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>101</v>
       </c>
@@ -18799,7 +18811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C43" s="4" t="s">
         <v>121</v>
       </c>
@@ -18807,7 +18819,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>122</v>
       </c>
@@ -18815,7 +18827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>89</v>
       </c>
@@ -18823,12 +18835,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="D46" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
         <v>106</v>
       </c>
@@ -18836,7 +18848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>96</v>
       </c>
@@ -18844,7 +18856,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>114</v>
       </c>
@@ -18852,7 +18864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -18860,7 +18872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="C51" s="7" t="s">
         <v>91</v>
       </c>
@@ -18870,7 +18882,7 @@
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>122</v>
       </c>
@@ -18880,7 +18892,7 @@
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>96</v>
       </c>
@@ -18890,7 +18902,7 @@
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>114</v>
       </c>
@@ -18900,7 +18912,7 @@
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -18908,12 +18920,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -18921,7 +18933,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>82</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>114</v>
       </c>
@@ -18937,7 +18949,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>82</v>
       </c>
@@ -18945,7 +18957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -18953,12 +18965,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -18981,28 +18993,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -19012,7 +19024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -19026,7 +19038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>71</v>
@@ -19038,7 +19050,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -19050,7 +19062,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
@@ -19059,7 +19071,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -19071,7 +19083,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
@@ -19080,7 +19092,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -19090,7 +19102,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>42</v>
       </c>
@@ -19100,14 +19112,14 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -19117,7 +19129,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
